--- a/Profile_DiagnosticReport.xlsx
+++ b/Profile_DiagnosticReport.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>DiagnosticReport.identifier</t>
   </si>
@@ -154,6 +154,118 @@
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
+  </si>
+  <si>
+    <t>Reference(CarePlan | ImmunizationRecommendation | MedicationRequest | NutritionOrder | ProcedureRequest | ReferralRequest)</t>
+  </si>
+  <si>
+    <t>Reference(Encounter | EpisodeOfCare)</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | Organization)</t>
+  </si>
+  <si>
+    <t>Reference(Specimen)</t>
+  </si>
+  <si>
+    <t>Reference(Observation)</t>
+  </si>
+  <si>
+    <t>Reference(ImagingStudy | ImagingManifest)</t>
+  </si>
+  <si>
+    <t>Reference(Media)</t>
+  </si>
+  <si>
+    <t>HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel</t>
+  </si>
+  <si>
+    <t>OBR-4</t>
+  </si>
+  <si>
+    <t>OBR-51</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBR-25 </t>
+  </si>
+  <si>
+    <t>not 1:1 mapping</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Reference(Patient | Group | Device | Location)
+(no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>OBR-22</t>
+  </si>
+  <si>
+    <t>OBR.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBR.25 </t>
+  </si>
+  <si>
+    <t>OBR.24</t>
+  </si>
+  <si>
+    <t>OBR.4</t>
+  </si>
+  <si>
+    <t>PID.3</t>
+  </si>
+  <si>
+    <t>PV1.19</t>
+  </si>
+  <si>
+    <t>OBR.7</t>
+  </si>
+  <si>
+    <t>OBR.22</t>
+  </si>
+  <si>
+    <t>(If PRT.4 = "PO") PRT.8</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4 = "PO")</t>
+  </si>
+  <si>
+    <t>(If PRT.Participation = "PO") PRT.ParticipationOrganization</t>
+  </si>
+  <si>
+    <t>OBR.ObservationGroupID</t>
+  </si>
+  <si>
+    <t>OBR.ResultStatus</t>
+  </si>
+  <si>
+    <t>OBR.DiagnosticServSectID</t>
+  </si>
+  <si>
+    <t>OBR.UniversalServiceIdentifier</t>
+  </si>
+  <si>
+    <t>OBR.ObservationDateTime</t>
+  </si>
+  <si>
+    <t>OBR.ResultsRptStatusChngDateTime</t>
+  </si>
+  <si>
+    <t>PID.PatientIdentifierList</t>
+  </si>
+  <si>
+    <t>PV1.VisitNumber</t>
   </si>
 </sst>
 </file>
@@ -222,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -245,31 +357,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -281,11 +373,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,17 +663,17 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -591,9 +684,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
@@ -622,121 +715,305 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
